--- a/state_results/Rivers/MakorokioatTirohangaStation_77796c48ae.xlsx
+++ b/state_results/Rivers/MakorokioatTirohangaStation_77796c48ae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,7 +937,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chlorophyll A (92nd Percentile)</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -956,27 +956,27 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>16.75</v>
+        <v>127.27</v>
       </c>
       <c r="G7" t="n">
-        <v>24.5301944444444</v>
+        <v>127.512</v>
       </c>
       <c r="H7" t="n">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="I7" t="n">
-        <v>78.5</v>
+        <v>134</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>21</v>
+        <v>127.27</v>
       </c>
       <c r="M7" t="n">
-        <v>43.83</v>
+        <v>133.3</v>
       </c>
       <c r="N7" t="n">
-        <v>69.3</v>
+        <v>134</v>
       </c>
       <c r="O7" t="n">
         <v>1793284</v>
@@ -1004,11 +1004,7 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>mg chl-a /m2</t>
-        </is>
-      </c>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1018,12 +1014,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>QMCI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1037,27 +1033,27 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>127.27</v>
+        <v>7.58</v>
       </c>
       <c r="G8" t="n">
-        <v>127.512</v>
+        <v>7.1324</v>
       </c>
       <c r="H8" t="n">
-        <v>134</v>
+        <v>7.6</v>
       </c>
       <c r="I8" t="n">
-        <v>134</v>
+        <v>7.6</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>127.27</v>
+        <v>7.58</v>
       </c>
       <c r="M8" t="n">
-        <v>133.3</v>
+        <v>7.6</v>
       </c>
       <c r="N8" t="n">
-        <v>134</v>
+        <v>7.6</v>
       </c>
       <c r="O8" t="n">
         <v>1793284</v>
@@ -1086,83 +1082,6 @@
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Makorokio at Tirohanga Station</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>QMCI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2017 - 2021</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.1324</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1793284</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5492986</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Ohau</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Ohau_1b</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/state_results/Rivers/MakorokioatTirohangaStation_77796c48ae.xlsx
+++ b/state_results/Rivers/MakorokioatTirohangaStation_77796c48ae.xlsx
@@ -582,7 +582,7 @@
         <v>0.695</v>
       </c>
       <c r="L2">
-        <v>0.6075</v>
+        <v>0.617</v>
       </c>
       <c r="M2">
         <v>0.66875</v>
@@ -638,7 +638,7 @@
         <v>75.75</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M3">
         <v>39.53</v>
@@ -753,7 +753,7 @@
         <v>7.6</v>
       </c>
       <c r="L5">
-        <v>7.346</v>
+        <v>7.112</v>
       </c>
       <c r="M5">
         <v>7.593</v>
